--- a/LUMCON Plants_StemDensity_Mastersheet_Olivia.xlsx
+++ b/LUMCON Plants_StemDensity_Mastersheet_Olivia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviaaguiar/Desktop/LUMCON REU/Project/LUMCONREU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955ED0A8-7A5A-E844-9257-0959FEC83F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF2FD6-294A-964D-AE2C-038F34113238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A1137" workbookViewId="0">
+      <selection activeCell="E582" sqref="E582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3553,7 +3553,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C194" si="2">CONCATENATE("0",B131, "/", A131)</f>
+        <f t="shared" ref="C131:C162" si="2">CONCATENATE("0",B131, "/", A131)</f>
         <v>08/2016</v>
       </c>
       <c r="D131" t="s">
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="str">
-        <f t="shared" ref="C195:C258" si="4">CONCATENATE("0",B217, "/", A217)</f>
+        <f t="shared" ref="C217:C258" si="4">CONCATENATE("0",B217, "/", A217)</f>
         <v>01/2017</v>
       </c>
       <c r="D217" t="s">
@@ -8161,7 +8161,7 @@
         <v>6</v>
       </c>
       <c r="C323" t="str">
-        <f t="shared" ref="C323:C386" si="6">CONCATENATE("0",B323, "/", A323)</f>
+        <f t="shared" ref="C323:C375" si="6">CONCATENATE("0",B323, "/", A323)</f>
         <v>06/2017</v>
       </c>
       <c r="D323" t="s">
@@ -10681,8 +10681,8 @@
         <v>1</v>
       </c>
       <c r="C428" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f>CONCATENATE("0",B428, "/", A428)</f>
+        <v>01/2018</v>
       </c>
       <c r="D428" t="s">
         <v>6</v>
@@ -10705,8 +10705,8 @@
         <v>1</v>
       </c>
       <c r="C429" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" ref="C429:C492" si="8">CONCATENATE("0",B429, "/", A429)</f>
+        <v>01/2018</v>
       </c>
       <c r="D429" t="s">
         <v>6</v>
@@ -10729,8 +10729,8 @@
         <v>1</v>
       </c>
       <c r="C430" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D430" t="s">
         <v>6</v>
@@ -10753,8 +10753,8 @@
         <v>1</v>
       </c>
       <c r="C431" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D431" t="s">
         <v>6</v>
@@ -10777,8 +10777,8 @@
         <v>1</v>
       </c>
       <c r="C432" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D432" t="s">
         <v>6</v>
@@ -10801,8 +10801,8 @@
         <v>1</v>
       </c>
       <c r="C433" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D433" t="s">
         <v>6</v>
@@ -10825,8 +10825,8 @@
         <v>1</v>
       </c>
       <c r="C434" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D434" t="s">
         <v>12</v>
@@ -10849,8 +10849,8 @@
         <v>1</v>
       </c>
       <c r="C435" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D435" t="s">
         <v>12</v>
@@ -10873,8 +10873,8 @@
         <v>1</v>
       </c>
       <c r="C436" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D436" t="s">
         <v>12</v>
@@ -10897,8 +10897,8 @@
         <v>1</v>
       </c>
       <c r="C437" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D437" t="s">
         <v>12</v>
@@ -10921,8 +10921,8 @@
         <v>1</v>
       </c>
       <c r="C438" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D438" t="s">
         <v>12</v>
@@ -10945,8 +10945,8 @@
         <v>1</v>
       </c>
       <c r="C439" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D439" t="s">
         <v>12</v>
@@ -10969,8 +10969,8 @@
         <v>1</v>
       </c>
       <c r="C440" t="str">
-        <f t="shared" si="7"/>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D440" t="s">
         <v>13</v>
@@ -10993,8 +10993,8 @@
         <v>1</v>
       </c>
       <c r="C441" t="str">
-        <f t="shared" ref="C441:C504" si="8">CONCATENATE(B441, "/", A441)</f>
-        <v>1/2018</v>
+        <f t="shared" si="8"/>
+        <v>01/2018</v>
       </c>
       <c r="D441" t="s">
         <v>13</v>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="C442" t="str">
         <f t="shared" si="8"/>
-        <v>1/2018</v>
+        <v>01/2018</v>
       </c>
       <c r="D442" t="s">
         <v>13</v>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="C443" t="str">
         <f t="shared" si="8"/>
-        <v>1/2018</v>
+        <v>01/2018</v>
       </c>
       <c r="D443" t="s">
         <v>13</v>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="C444" t="str">
         <f t="shared" si="8"/>
-        <v>1/2018</v>
+        <v>01/2018</v>
       </c>
       <c r="D444" t="s">
         <v>13</v>
@@ -11090,7 +11090,7 @@
       </c>
       <c r="C445" t="str">
         <f t="shared" si="8"/>
-        <v>1/2018</v>
+        <v>01/2018</v>
       </c>
       <c r="D445" t="s">
         <v>13</v>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="C446" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D446" t="s">
         <v>6</v>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="C447" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D447" t="s">
         <v>6</v>
@@ -11162,7 +11162,7 @@
       </c>
       <c r="C448" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D448" t="s">
         <v>6</v>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="C449" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D449" t="s">
         <v>6</v>
@@ -11210,7 +11210,7 @@
       </c>
       <c r="C450" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D450" t="s">
         <v>6</v>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="C451" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D451" t="s">
         <v>6</v>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="C452" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D452" t="s">
         <v>12</v>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C453" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D453" t="s">
         <v>12</v>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="C454" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D454" t="s">
         <v>12</v>
@@ -11330,7 +11330,7 @@
       </c>
       <c r="C455" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D455" t="s">
         <v>12</v>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="C456" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D456" t="s">
         <v>12</v>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="C457" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D457" t="s">
         <v>12</v>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="C458" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D458" t="s">
         <v>13</v>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="C459" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D459" t="s">
         <v>13</v>
@@ -11450,7 +11450,7 @@
       </c>
       <c r="C460" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D460" t="s">
         <v>13</v>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="C461" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D461" t="s">
         <v>13</v>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="C462" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D462" t="s">
         <v>13</v>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="C463" t="str">
         <f t="shared" si="8"/>
-        <v>2/2018</v>
+        <v>02/2018</v>
       </c>
       <c r="D463" t="s">
         <v>13</v>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="C464" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D464" t="s">
         <v>6</v>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="C465" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D465" t="s">
         <v>6</v>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="C466" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D466" t="s">
         <v>6</v>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="C467" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D467" t="s">
         <v>6</v>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="C468" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D468" t="s">
         <v>6</v>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="C469" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D469" t="s">
         <v>6</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C470" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D470" t="s">
         <v>12</v>
@@ -11714,7 +11714,7 @@
       </c>
       <c r="C471" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D471" t="s">
         <v>12</v>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="C472" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D472" t="s">
         <v>12</v>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C473" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D473" t="s">
         <v>12</v>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="C474" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D474" t="s">
         <v>12</v>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="C475" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D475" t="s">
         <v>12</v>
@@ -11834,7 +11834,7 @@
       </c>
       <c r="C476" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D476" t="s">
         <v>13</v>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="C477" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D477" t="s">
         <v>13</v>
@@ -11882,7 +11882,7 @@
       </c>
       <c r="C478" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D478" t="s">
         <v>13</v>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="C479" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D479" t="s">
         <v>13</v>
@@ -11930,7 +11930,7 @@
       </c>
       <c r="C480" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D480" t="s">
         <v>13</v>
@@ -11954,7 +11954,7 @@
       </c>
       <c r="C481" t="str">
         <f t="shared" si="8"/>
-        <v>3/2018</v>
+        <v>03/2018</v>
       </c>
       <c r="D481" t="s">
         <v>13</v>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="C482" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D482" t="s">
         <v>6</v>
@@ -12002,7 +12002,7 @@
       </c>
       <c r="C483" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D483" t="s">
         <v>6</v>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="C484" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D484" t="s">
         <v>6</v>
@@ -12050,7 +12050,7 @@
       </c>
       <c r="C485" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D485" t="s">
         <v>6</v>
@@ -12074,7 +12074,7 @@
       </c>
       <c r="C486" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D486" t="s">
         <v>6</v>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C487" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D487" t="s">
         <v>6</v>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="C488" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D488" t="s">
         <v>12</v>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="C489" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D489" t="s">
         <v>12</v>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="C490" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D490" t="s">
         <v>12</v>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="C491" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D491" t="s">
         <v>12</v>
@@ -12218,7 +12218,7 @@
       </c>
       <c r="C492" t="str">
         <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <v>04/2018</v>
       </c>
       <c r="D492" t="s">
         <v>12</v>
@@ -12241,8 +12241,8 @@
         <v>4</v>
       </c>
       <c r="C493" t="str">
-        <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <f t="shared" ref="C493:C556" si="9">CONCATENATE("0",B493, "/", A493)</f>
+        <v>04/2018</v>
       </c>
       <c r="D493" t="s">
         <v>12</v>
@@ -12265,8 +12265,8 @@
         <v>4</v>
       </c>
       <c r="C494" t="str">
-        <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <f t="shared" si="9"/>
+        <v>04/2018</v>
       </c>
       <c r="D494" t="s">
         <v>13</v>
@@ -12289,8 +12289,8 @@
         <v>4</v>
       </c>
       <c r="C495" t="str">
-        <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <f t="shared" si="9"/>
+        <v>04/2018</v>
       </c>
       <c r="D495" t="s">
         <v>13</v>
@@ -12313,8 +12313,8 @@
         <v>4</v>
       </c>
       <c r="C496" t="str">
-        <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <f t="shared" si="9"/>
+        <v>04/2018</v>
       </c>
       <c r="D496" t="s">
         <v>13</v>
@@ -12337,8 +12337,8 @@
         <v>4</v>
       </c>
       <c r="C497" t="str">
-        <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <f t="shared" si="9"/>
+        <v>04/2018</v>
       </c>
       <c r="D497" t="s">
         <v>13</v>
@@ -12361,8 +12361,8 @@
         <v>4</v>
       </c>
       <c r="C498" t="str">
-        <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <f t="shared" si="9"/>
+        <v>04/2018</v>
       </c>
       <c r="D498" t="s">
         <v>13</v>
@@ -12385,8 +12385,8 @@
         <v>4</v>
       </c>
       <c r="C499" t="str">
-        <f t="shared" si="8"/>
-        <v>4/2018</v>
+        <f t="shared" si="9"/>
+        <v>04/2018</v>
       </c>
       <c r="D499" t="s">
         <v>13</v>
@@ -12409,8 +12409,8 @@
         <v>5</v>
       </c>
       <c r="C500" t="str">
-        <f t="shared" si="8"/>
-        <v>5/2018</v>
+        <f t="shared" si="9"/>
+        <v>05/2018</v>
       </c>
       <c r="D500" t="s">
         <v>6</v>
@@ -12433,8 +12433,8 @@
         <v>5</v>
       </c>
       <c r="C501" t="str">
-        <f t="shared" si="8"/>
-        <v>5/2018</v>
+        <f t="shared" si="9"/>
+        <v>05/2018</v>
       </c>
       <c r="D501" t="s">
         <v>6</v>
@@ -12457,8 +12457,8 @@
         <v>5</v>
       </c>
       <c r="C502" t="str">
-        <f t="shared" si="8"/>
-        <v>5/2018</v>
+        <f t="shared" si="9"/>
+        <v>05/2018</v>
       </c>
       <c r="D502" t="s">
         <v>6</v>
@@ -12481,8 +12481,8 @@
         <v>5</v>
       </c>
       <c r="C503" t="str">
-        <f t="shared" si="8"/>
-        <v>5/2018</v>
+        <f t="shared" si="9"/>
+        <v>05/2018</v>
       </c>
       <c r="D503" t="s">
         <v>6</v>
@@ -12505,8 +12505,8 @@
         <v>5</v>
       </c>
       <c r="C504" t="str">
-        <f t="shared" si="8"/>
-        <v>5/2018</v>
+        <f t="shared" si="9"/>
+        <v>05/2018</v>
       </c>
       <c r="D504" t="s">
         <v>6</v>
@@ -12529,8 +12529,8 @@
         <v>5</v>
       </c>
       <c r="C505" t="str">
-        <f t="shared" ref="C505:C568" si="9">CONCATENATE(B505, "/", A505)</f>
-        <v>5/2018</v>
+        <f t="shared" si="9"/>
+        <v>05/2018</v>
       </c>
       <c r="D505" t="s">
         <v>6</v>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="C506" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D506" t="s">
         <v>12</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="C507" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D507" t="s">
         <v>12</v>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="C508" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D508" t="s">
         <v>12</v>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="C509" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D509" t="s">
         <v>12</v>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="C510" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D510" t="s">
         <v>12</v>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="C511" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D511" t="s">
         <v>12</v>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="C512" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D512" t="s">
         <v>13</v>
@@ -12722,7 +12722,7 @@
       </c>
       <c r="C513" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D513" t="s">
         <v>13</v>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="C514" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D514" t="s">
         <v>13</v>
@@ -12770,7 +12770,7 @@
       </c>
       <c r="C515" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D515" t="s">
         <v>13</v>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="C516" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D516" t="s">
         <v>13</v>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="C517" t="str">
         <f t="shared" si="9"/>
-        <v>5/2018</v>
+        <v>05/2018</v>
       </c>
       <c r="D517" t="s">
         <v>13</v>
@@ -12842,7 +12842,7 @@
       </c>
       <c r="C518" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D518" t="s">
         <v>6</v>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="C519" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D519" t="s">
         <v>6</v>
@@ -12890,7 +12890,7 @@
       </c>
       <c r="C520" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D520" t="s">
         <v>6</v>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C521" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D521" t="s">
         <v>6</v>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="C522" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D522" t="s">
         <v>6</v>
@@ -12962,7 +12962,7 @@
       </c>
       <c r="C523" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D523" t="s">
         <v>6</v>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="C524" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D524" t="s">
         <v>12</v>
@@ -13010,7 +13010,7 @@
       </c>
       <c r="C525" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D525" t="s">
         <v>12</v>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="C526" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D526" t="s">
         <v>12</v>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="C527" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D527" t="s">
         <v>12</v>
@@ -13082,7 +13082,7 @@
       </c>
       <c r="C528" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D528" t="s">
         <v>12</v>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="C529" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D529" t="s">
         <v>12</v>
@@ -13130,7 +13130,7 @@
       </c>
       <c r="C530" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D530" t="s">
         <v>13</v>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="C531" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D531" t="s">
         <v>13</v>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="C532" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D532" t="s">
         <v>13</v>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="C533" t="str">
         <f t="shared" si="9"/>
-        <v>6/2018</v>
+        <v>06/2018</v>
       </c>
       <c r="D533" t="s">
         <v>13</v>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="C534" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D534" t="s">
         <v>6</v>
@@ -13250,7 +13250,7 @@
       </c>
       <c r="C535" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D535" t="s">
         <v>6</v>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="C536" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D536" t="s">
         <v>6</v>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="C537" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D537" t="s">
         <v>6</v>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C538" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D538" t="s">
         <v>6</v>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="C539" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D539" t="s">
         <v>6</v>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="C540" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D540" t="s">
         <v>12</v>
@@ -13394,7 +13394,7 @@
       </c>
       <c r="C541" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D541" t="s">
         <v>12</v>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="C542" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D542" t="s">
         <v>12</v>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="C543" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D543" t="s">
         <v>12</v>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="C544" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D544" t="s">
         <v>12</v>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="C545" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D545" t="s">
         <v>12</v>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="C546" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D546" t="s">
         <v>13</v>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="C547" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D547" t="s">
         <v>13</v>
@@ -13562,7 +13562,7 @@
       </c>
       <c r="C548" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D548" t="s">
         <v>13</v>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="C549" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D549" t="s">
         <v>13</v>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="C550" t="str">
         <f t="shared" si="9"/>
-        <v>7/2018</v>
+        <v>07/2018</v>
       </c>
       <c r="D550" t="s">
         <v>13</v>
@@ -13634,7 +13634,7 @@
       </c>
       <c r="C551" t="str">
         <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <v>08/2018</v>
       </c>
       <c r="D551" t="s">
         <v>6</v>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="C552" t="str">
         <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <v>08/2018</v>
       </c>
       <c r="D552" t="s">
         <v>6</v>
@@ -13682,7 +13682,7 @@
       </c>
       <c r="C553" t="str">
         <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <v>08/2018</v>
       </c>
       <c r="D553" t="s">
         <v>6</v>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="C554" t="str">
         <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <v>08/2018</v>
       </c>
       <c r="D554" t="s">
         <v>6</v>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C555" t="str">
         <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <v>08/2018</v>
       </c>
       <c r="D555" t="s">
         <v>6</v>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="C556" t="str">
         <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <v>08/2018</v>
       </c>
       <c r="D556" t="s">
         <v>6</v>
@@ -13777,8 +13777,8 @@
         <v>8</v>
       </c>
       <c r="C557" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" ref="C557:C581" si="10">CONCATENATE("0",B557, "/", A557)</f>
+        <v>08/2018</v>
       </c>
       <c r="D557" t="s">
         <v>12</v>
@@ -13801,8 +13801,8 @@
         <v>8</v>
       </c>
       <c r="C558" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D558" t="s">
         <v>12</v>
@@ -13825,8 +13825,8 @@
         <v>8</v>
       </c>
       <c r="C559" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D559" t="s">
         <v>12</v>
@@ -13849,8 +13849,8 @@
         <v>8</v>
       </c>
       <c r="C560" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D560" t="s">
         <v>12</v>
@@ -13873,8 +13873,8 @@
         <v>8</v>
       </c>
       <c r="C561" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D561" t="s">
         <v>12</v>
@@ -13897,8 +13897,8 @@
         <v>8</v>
       </c>
       <c r="C562" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D562" t="s">
         <v>13</v>
@@ -13921,8 +13921,8 @@
         <v>8</v>
       </c>
       <c r="C563" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D563" t="s">
         <v>13</v>
@@ -13945,8 +13945,8 @@
         <v>8</v>
       </c>
       <c r="C564" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D564" t="s">
         <v>13</v>
@@ -13969,8 +13969,8 @@
         <v>8</v>
       </c>
       <c r="C565" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D565" t="s">
         <v>13</v>
@@ -13993,8 +13993,8 @@
         <v>8</v>
       </c>
       <c r="C566" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D566" t="s">
         <v>13</v>
@@ -14017,8 +14017,8 @@
         <v>8</v>
       </c>
       <c r="C567" t="str">
-        <f t="shared" si="9"/>
-        <v>8/2018</v>
+        <f t="shared" si="10"/>
+        <v>08/2018</v>
       </c>
       <c r="D567" t="s">
         <v>13</v>
@@ -14041,8 +14041,8 @@
         <v>9</v>
       </c>
       <c r="C568" t="str">
-        <f t="shared" si="9"/>
-        <v>9/2018</v>
+        <f t="shared" si="10"/>
+        <v>09/2018</v>
       </c>
       <c r="D568" t="s">
         <v>6</v>
@@ -14065,8 +14065,8 @@
         <v>9</v>
       </c>
       <c r="C569" t="str">
-        <f t="shared" ref="C569:C631" si="10">CONCATENATE(B569, "/", A569)</f>
-        <v>9/2018</v>
+        <f t="shared" si="10"/>
+        <v>09/2018</v>
       </c>
       <c r="D569" t="s">
         <v>6</v>
@@ -14090,7 +14090,7 @@
       </c>
       <c r="C570" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D570" t="s">
         <v>6</v>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="C571" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D571" t="s">
         <v>6</v>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C572" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D572" t="s">
         <v>12</v>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="C573" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D573" t="s">
         <v>12</v>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="C574" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D574" t="s">
         <v>12</v>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="C575" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D575" t="s">
         <v>12</v>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="C576" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D576" t="s">
         <v>12</v>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="C577" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D577" t="s">
         <v>13</v>
@@ -14282,7 +14282,7 @@
       </c>
       <c r="C578" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D578" t="s">
         <v>13</v>
@@ -14306,7 +14306,7 @@
       </c>
       <c r="C579" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D579" t="s">
         <v>13</v>
@@ -14330,7 +14330,7 @@
       </c>
       <c r="C580" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D580" t="s">
         <v>13</v>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="C581" t="str">
         <f t="shared" si="10"/>
-        <v>9/2018</v>
+        <v>09/2018</v>
       </c>
       <c r="D581" t="s">
         <v>13</v>
@@ -14377,7 +14377,7 @@
         <v>10</v>
       </c>
       <c r="C582" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C569:C631" si="11">CONCATENATE(B582, "/", A582)</f>
         <v>10/2018</v>
       </c>
       <c r="D582" t="s">
@@ -14401,7 +14401,7 @@
         <v>10</v>
       </c>
       <c r="C583" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D583" t="s">
@@ -14425,7 +14425,7 @@
         <v>10</v>
       </c>
       <c r="C584" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D584" t="s">
@@ -14449,7 +14449,7 @@
         <v>10</v>
       </c>
       <c r="C585" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D585" t="s">
@@ -14473,7 +14473,7 @@
         <v>10</v>
       </c>
       <c r="C586" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D586" t="s">
@@ -14497,7 +14497,7 @@
         <v>10</v>
       </c>
       <c r="C587" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D587" t="s">
@@ -14521,7 +14521,7 @@
         <v>10</v>
       </c>
       <c r="C588" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D588" t="s">
@@ -14545,7 +14545,7 @@
         <v>10</v>
       </c>
       <c r="C589" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D589" t="s">
@@ -14569,7 +14569,7 @@
         <v>10</v>
       </c>
       <c r="C590" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D590" t="s">
@@ -14593,7 +14593,7 @@
         <v>10</v>
       </c>
       <c r="C591" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D591" t="s">
@@ -14617,7 +14617,7 @@
         <v>10</v>
       </c>
       <c r="C592" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D592" t="s">
@@ -14641,7 +14641,7 @@
         <v>10</v>
       </c>
       <c r="C593" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D593" t="s">
@@ -14665,7 +14665,7 @@
         <v>10</v>
       </c>
       <c r="C594" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D594" t="s">
@@ -14689,7 +14689,7 @@
         <v>10</v>
       </c>
       <c r="C595" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D595" t="s">
@@ -14713,7 +14713,7 @@
         <v>10</v>
       </c>
       <c r="C596" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D596" t="s">
@@ -14737,7 +14737,7 @@
         <v>10</v>
       </c>
       <c r="C597" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10/2018</v>
       </c>
       <c r="D597" t="s">
@@ -14761,7 +14761,7 @@
         <v>11</v>
       </c>
       <c r="C598" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D598" t="s">
@@ -14785,7 +14785,7 @@
         <v>11</v>
       </c>
       <c r="C599" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D599" t="s">
@@ -14809,7 +14809,7 @@
         <v>11</v>
       </c>
       <c r="C600" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D600" t="s">
@@ -14833,7 +14833,7 @@
         <v>11</v>
       </c>
       <c r="C601" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D601" t="s">
@@ -14857,7 +14857,7 @@
         <v>11</v>
       </c>
       <c r="C602" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D602" t="s">
@@ -14881,7 +14881,7 @@
         <v>11</v>
       </c>
       <c r="C603" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D603" t="s">
@@ -14905,7 +14905,7 @@
         <v>11</v>
       </c>
       <c r="C604" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D604" t="s">
@@ -14929,7 +14929,7 @@
         <v>11</v>
       </c>
       <c r="C605" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D605" t="s">
@@ -14953,7 +14953,7 @@
         <v>11</v>
       </c>
       <c r="C606" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D606" t="s">
@@ -14977,7 +14977,7 @@
         <v>11</v>
       </c>
       <c r="C607" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D607" t="s">
@@ -15001,7 +15001,7 @@
         <v>11</v>
       </c>
       <c r="C608" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D608" t="s">
@@ -15025,7 +15025,7 @@
         <v>11</v>
       </c>
       <c r="C609" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D609" t="s">
@@ -15049,7 +15049,7 @@
         <v>11</v>
       </c>
       <c r="C610" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D610" t="s">
@@ -15073,7 +15073,7 @@
         <v>11</v>
       </c>
       <c r="C611" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D611" t="s">
@@ -15097,7 +15097,7 @@
         <v>11</v>
       </c>
       <c r="C612" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D612" t="s">
@@ -15121,7 +15121,7 @@
         <v>11</v>
       </c>
       <c r="C613" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D613" t="s">
@@ -15145,7 +15145,7 @@
         <v>11</v>
       </c>
       <c r="C614" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D614" t="s">
@@ -15169,7 +15169,7 @@
         <v>11</v>
       </c>
       <c r="C615" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11/2018</v>
       </c>
       <c r="D615" t="s">
@@ -15193,7 +15193,7 @@
         <v>12</v>
       </c>
       <c r="C616" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D616" t="s">
@@ -15217,7 +15217,7 @@
         <v>12</v>
       </c>
       <c r="C617" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D617" t="s">
@@ -15241,7 +15241,7 @@
         <v>12</v>
       </c>
       <c r="C618" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D618" t="s">
@@ -15265,7 +15265,7 @@
         <v>12</v>
       </c>
       <c r="C619" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D619" t="s">
@@ -15289,7 +15289,7 @@
         <v>12</v>
       </c>
       <c r="C620" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D620" t="s">
@@ -15313,7 +15313,7 @@
         <v>12</v>
       </c>
       <c r="C621" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D621" t="s">
@@ -15337,7 +15337,7 @@
         <v>12</v>
       </c>
       <c r="C622" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D622" t="s">
@@ -15361,7 +15361,7 @@
         <v>12</v>
       </c>
       <c r="C623" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D623" t="s">
@@ -15385,7 +15385,7 @@
         <v>12</v>
       </c>
       <c r="C624" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D624" t="s">
@@ -15409,7 +15409,7 @@
         <v>12</v>
       </c>
       <c r="C625" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D625" t="s">
@@ -15433,7 +15433,7 @@
         <v>12</v>
       </c>
       <c r="C626" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D626" t="s">
@@ -15457,7 +15457,7 @@
         <v>12</v>
       </c>
       <c r="C627" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D627" t="s">
@@ -15481,7 +15481,7 @@
         <v>12</v>
       </c>
       <c r="C628" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D628" t="s">
@@ -15505,7 +15505,7 @@
         <v>12</v>
       </c>
       <c r="C629" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D629" t="s">
@@ -15529,7 +15529,7 @@
         <v>12</v>
       </c>
       <c r="C630" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D630" t="s">
@@ -15553,7 +15553,7 @@
         <v>12</v>
       </c>
       <c r="C631" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12/2018</v>
       </c>
       <c r="D631" t="s">
@@ -15601,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="C633" t="str">
-        <f t="shared" ref="C579:C642" si="11">CONCATENATE("0",B633, "/", A633)</f>
+        <f t="shared" ref="C633:C642" si="12">CONCATENATE("0",B633, "/", A633)</f>
         <v>01/2019</v>
       </c>
       <c r="D633" t="s">
@@ -15625,7 +15625,7 @@
         <v>1</v>
       </c>
       <c r="C634" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>01/2019</v>
       </c>
       <c r="D634" t="s">
@@ -15649,7 +15649,7 @@
         <v>1</v>
       </c>
       <c r="C635" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>01/2019</v>
       </c>
       <c r="D635" t="s">
@@ -15673,7 +15673,7 @@
         <v>1</v>
       </c>
       <c r="C636" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>01/2019</v>
       </c>
       <c r="D636" t="s">
@@ -15697,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="C637" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>01/2019</v>
       </c>
       <c r="D637" t="s">
@@ -15721,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="C638" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>01/2019</v>
       </c>
       <c r="D638" t="s">
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
       <c r="C639" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>01/2019</v>
       </c>
       <c r="D639" t="s">
@@ -15769,7 +15769,7 @@
         <v>1</v>
       </c>
       <c r="C640" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>01/2019</v>
       </c>
       <c r="D640" t="s">
@@ -15793,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="C641" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>01/2019</v>
       </c>
       <c r="D641" t="s">
@@ -15817,7 +15817,7 @@
         <v>1</v>
       </c>
       <c r="C642" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>01/2019</v>
       </c>
       <c r="D642" t="s">
@@ -15841,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="C643" t="str">
-        <f t="shared" ref="C643:C706" si="12">CONCATENATE("0",B643, "/", A643)</f>
+        <f t="shared" ref="C643:C706" si="13">CONCATENATE("0",B643, "/", A643)</f>
         <v>01/2019</v>
       </c>
       <c r="D643" t="s">
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="C644" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>01/2019</v>
       </c>
       <c r="D644" t="s">
@@ -15889,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="C645" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>01/2019</v>
       </c>
       <c r="D645" t="s">
@@ -15913,7 +15913,7 @@
         <v>1</v>
       </c>
       <c r="C646" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>01/2019</v>
       </c>
       <c r="D646" t="s">
@@ -15937,7 +15937,7 @@
         <v>1</v>
       </c>
       <c r="C647" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>01/2019</v>
       </c>
       <c r="D647" t="s">
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="C648" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>01/2019</v>
       </c>
       <c r="D648" t="s">
@@ -15985,7 +15985,7 @@
         <v>1</v>
       </c>
       <c r="C649" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>01/2019</v>
       </c>
       <c r="D649" t="s">
@@ -16009,7 +16009,7 @@
         <v>2</v>
       </c>
       <c r="C650" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D650" t="s">
@@ -16033,7 +16033,7 @@
         <v>2</v>
       </c>
       <c r="C651" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D651" t="s">
@@ -16057,7 +16057,7 @@
         <v>2</v>
       </c>
       <c r="C652" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D652" t="s">
@@ -16081,7 +16081,7 @@
         <v>2</v>
       </c>
       <c r="C653" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D653" t="s">
@@ -16105,7 +16105,7 @@
         <v>2</v>
       </c>
       <c r="C654" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D654" t="s">
@@ -16129,7 +16129,7 @@
         <v>2</v>
       </c>
       <c r="C655" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D655" t="s">
@@ -16153,7 +16153,7 @@
         <v>2</v>
       </c>
       <c r="C656" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D656" t="s">
@@ -16177,7 +16177,7 @@
         <v>2</v>
       </c>
       <c r="C657" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D657" t="s">
@@ -16201,7 +16201,7 @@
         <v>2</v>
       </c>
       <c r="C658" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D658" t="s">
@@ -16225,7 +16225,7 @@
         <v>2</v>
       </c>
       <c r="C659" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D659" t="s">
@@ -16249,7 +16249,7 @@
         <v>2</v>
       </c>
       <c r="C660" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D660" t="s">
@@ -16273,7 +16273,7 @@
         <v>2</v>
       </c>
       <c r="C661" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D661" t="s">
@@ -16297,7 +16297,7 @@
         <v>2</v>
       </c>
       <c r="C662" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D662" t="s">
@@ -16321,7 +16321,7 @@
         <v>2</v>
       </c>
       <c r="C663" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D663" t="s">
@@ -16345,7 +16345,7 @@
         <v>2</v>
       </c>
       <c r="C664" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D664" t="s">
@@ -16369,7 +16369,7 @@
         <v>2</v>
       </c>
       <c r="C665" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D665" t="s">
@@ -16393,7 +16393,7 @@
         <v>2</v>
       </c>
       <c r="C666" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D666" t="s">
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="C667" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>02/2019</v>
       </c>
       <c r="D667" t="s">
@@ -16441,7 +16441,7 @@
         <v>3</v>
       </c>
       <c r="C668" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D668" t="s">
@@ -16465,7 +16465,7 @@
         <v>3</v>
       </c>
       <c r="C669" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D669" t="s">
@@ -16489,7 +16489,7 @@
         <v>3</v>
       </c>
       <c r="C670" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D670" t="s">
@@ -16513,7 +16513,7 @@
         <v>3</v>
       </c>
       <c r="C671" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D671" t="s">
@@ -16537,7 +16537,7 @@
         <v>3</v>
       </c>
       <c r="C672" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D672" t="s">
@@ -16561,7 +16561,7 @@
         <v>3</v>
       </c>
       <c r="C673" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D673" t="s">
@@ -16585,7 +16585,7 @@
         <v>3</v>
       </c>
       <c r="C674" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D674" t="s">
@@ -16609,7 +16609,7 @@
         <v>3</v>
       </c>
       <c r="C675" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D675" t="s">
@@ -16633,7 +16633,7 @@
         <v>3</v>
       </c>
       <c r="C676" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D676" t="s">
@@ -16657,7 +16657,7 @@
         <v>3</v>
       </c>
       <c r="C677" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D677" t="s">
@@ -16681,7 +16681,7 @@
         <v>3</v>
       </c>
       <c r="C678" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D678" t="s">
@@ -16705,7 +16705,7 @@
         <v>3</v>
       </c>
       <c r="C679" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D679" t="s">
@@ -16729,7 +16729,7 @@
         <v>3</v>
       </c>
       <c r="C680" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D680" t="s">
@@ -16753,7 +16753,7 @@
         <v>3</v>
       </c>
       <c r="C681" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D681" t="s">
@@ -16777,7 +16777,7 @@
         <v>3</v>
       </c>
       <c r="C682" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D682" t="s">
@@ -16801,7 +16801,7 @@
         <v>3</v>
       </c>
       <c r="C683" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03/2019</v>
       </c>
       <c r="D683" t="s">
@@ -16825,7 +16825,7 @@
         <v>4</v>
       </c>
       <c r="C684" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D684" t="s">
@@ -16849,7 +16849,7 @@
         <v>4</v>
       </c>
       <c r="C685" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D685" t="s">
@@ -16873,7 +16873,7 @@
         <v>4</v>
       </c>
       <c r="C686" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D686" t="s">
@@ -16897,7 +16897,7 @@
         <v>4</v>
       </c>
       <c r="C687" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D687" t="s">
@@ -16921,7 +16921,7 @@
         <v>4</v>
       </c>
       <c r="C688" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D688" t="s">
@@ -16945,7 +16945,7 @@
         <v>4</v>
       </c>
       <c r="C689" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D689" t="s">
@@ -16969,7 +16969,7 @@
         <v>4</v>
       </c>
       <c r="C690" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D690" t="s">
@@ -16993,7 +16993,7 @@
         <v>4</v>
       </c>
       <c r="C691" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D691" t="s">
@@ -17017,7 +17017,7 @@
         <v>4</v>
       </c>
       <c r="C692" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D692" t="s">
@@ -17041,7 +17041,7 @@
         <v>4</v>
       </c>
       <c r="C693" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D693" t="s">
@@ -17065,7 +17065,7 @@
         <v>4</v>
       </c>
       <c r="C694" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D694" t="s">
@@ -17089,7 +17089,7 @@
         <v>4</v>
       </c>
       <c r="C695" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D695" t="s">
@@ -17113,7 +17113,7 @@
         <v>4</v>
       </c>
       <c r="C696" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D696" t="s">
@@ -17137,7 +17137,7 @@
         <v>4</v>
       </c>
       <c r="C697" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D697" t="s">
@@ -17161,7 +17161,7 @@
         <v>4</v>
       </c>
       <c r="C698" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D698" t="s">
@@ -17185,7 +17185,7 @@
         <v>4</v>
       </c>
       <c r="C699" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D699" t="s">
@@ -17209,7 +17209,7 @@
         <v>4</v>
       </c>
       <c r="C700" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D700" t="s">
@@ -17233,7 +17233,7 @@
         <v>4</v>
       </c>
       <c r="C701" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04/2019</v>
       </c>
       <c r="D701" t="s">
@@ -17257,7 +17257,7 @@
         <v>5</v>
       </c>
       <c r="C702" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>05/2019</v>
       </c>
       <c r="D702" t="s">
@@ -17281,7 +17281,7 @@
         <v>5</v>
       </c>
       <c r="C703" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>05/2019</v>
       </c>
       <c r="D703" t="s">
@@ -17305,7 +17305,7 @@
         <v>5</v>
       </c>
       <c r="C704" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>05/2019</v>
       </c>
       <c r="D704" t="s">
@@ -17329,7 +17329,7 @@
         <v>5</v>
       </c>
       <c r="C705" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>05/2019</v>
       </c>
       <c r="D705" t="s">
@@ -17353,7 +17353,7 @@
         <v>5</v>
       </c>
       <c r="C706" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>05/2019</v>
       </c>
       <c r="D706" t="s">
@@ -17377,7 +17377,7 @@
         <v>5</v>
       </c>
       <c r="C707" t="str">
-        <f t="shared" ref="C707:C770" si="13">CONCATENATE("0",B707, "/", A707)</f>
+        <f t="shared" ref="C707:C770" si="14">CONCATENATE("0",B707, "/", A707)</f>
         <v>05/2019</v>
       </c>
       <c r="D707" t="s">
@@ -17401,7 +17401,7 @@
         <v>5</v>
       </c>
       <c r="C708" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D708" t="s">
@@ -17425,7 +17425,7 @@
         <v>5</v>
       </c>
       <c r="C709" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D709" t="s">
@@ -17449,7 +17449,7 @@
         <v>5</v>
       </c>
       <c r="C710" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D710" t="s">
@@ -17473,7 +17473,7 @@
         <v>5</v>
       </c>
       <c r="C711" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D711" t="s">
@@ -17497,7 +17497,7 @@
         <v>5</v>
       </c>
       <c r="C712" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D712" t="s">
@@ -17521,7 +17521,7 @@
         <v>5</v>
       </c>
       <c r="C713" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D713" t="s">
@@ -17545,7 +17545,7 @@
         <v>5</v>
       </c>
       <c r="C714" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D714" t="s">
@@ -17569,7 +17569,7 @@
         <v>5</v>
       </c>
       <c r="C715" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D715" t="s">
@@ -17593,7 +17593,7 @@
         <v>5</v>
       </c>
       <c r="C716" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D716" t="s">
@@ -17617,7 +17617,7 @@
         <v>5</v>
       </c>
       <c r="C717" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D717" t="s">
@@ -17641,7 +17641,7 @@
         <v>5</v>
       </c>
       <c r="C718" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>05/2019</v>
       </c>
       <c r="D718" t="s">
@@ -17665,7 +17665,7 @@
         <v>6</v>
       </c>
       <c r="C719" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D719" t="s">
@@ -17689,7 +17689,7 @@
         <v>6</v>
       </c>
       <c r="C720" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D720" t="s">
@@ -17713,7 +17713,7 @@
         <v>6</v>
       </c>
       <c r="C721" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D721" t="s">
@@ -17737,7 +17737,7 @@
         <v>6</v>
       </c>
       <c r="C722" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D722" t="s">
@@ -17761,7 +17761,7 @@
         <v>6</v>
       </c>
       <c r="C723" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D723" t="s">
@@ -17785,7 +17785,7 @@
         <v>6</v>
       </c>
       <c r="C724" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D724" t="s">
@@ -17809,7 +17809,7 @@
         <v>6</v>
       </c>
       <c r="C725" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D725" t="s">
@@ -17833,7 +17833,7 @@
         <v>6</v>
       </c>
       <c r="C726" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D726" t="s">
@@ -17857,7 +17857,7 @@
         <v>6</v>
       </c>
       <c r="C727" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D727" t="s">
@@ -17881,7 +17881,7 @@
         <v>6</v>
       </c>
       <c r="C728" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D728" t="s">
@@ -17905,7 +17905,7 @@
         <v>6</v>
       </c>
       <c r="C729" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D729" t="s">
@@ -17929,7 +17929,7 @@
         <v>6</v>
       </c>
       <c r="C730" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D730" t="s">
@@ -17953,7 +17953,7 @@
         <v>6</v>
       </c>
       <c r="C731" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D731" t="s">
@@ -17977,7 +17977,7 @@
         <v>6</v>
       </c>
       <c r="C732" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D732" t="s">
@@ -18001,7 +18001,7 @@
         <v>6</v>
       </c>
       <c r="C733" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D733" t="s">
@@ -18025,7 +18025,7 @@
         <v>6</v>
       </c>
       <c r="C734" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D734" t="s">
@@ -18049,7 +18049,7 @@
         <v>6</v>
       </c>
       <c r="C735" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D735" t="s">
@@ -18073,7 +18073,7 @@
         <v>6</v>
       </c>
       <c r="C736" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06/2019</v>
       </c>
       <c r="D736" t="s">
@@ -18097,7 +18097,7 @@
         <v>7</v>
       </c>
       <c r="C737" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D737" t="s">
@@ -18121,7 +18121,7 @@
         <v>7</v>
       </c>
       <c r="C738" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D738" t="s">
@@ -18145,7 +18145,7 @@
         <v>7</v>
       </c>
       <c r="C739" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D739" t="s">
@@ -18169,7 +18169,7 @@
         <v>7</v>
       </c>
       <c r="C740" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D740" t="s">
@@ -18193,7 +18193,7 @@
         <v>7</v>
       </c>
       <c r="C741" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D741" t="s">
@@ -18217,7 +18217,7 @@
         <v>7</v>
       </c>
       <c r="C742" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D742" t="s">
@@ -18241,7 +18241,7 @@
         <v>7</v>
       </c>
       <c r="C743" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D743" t="s">
@@ -18265,7 +18265,7 @@
         <v>7</v>
       </c>
       <c r="C744" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D744" t="s">
@@ -18289,7 +18289,7 @@
         <v>7</v>
       </c>
       <c r="C745" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D745" t="s">
@@ -18313,7 +18313,7 @@
         <v>7</v>
       </c>
       <c r="C746" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D746" t="s">
@@ -18337,7 +18337,7 @@
         <v>7</v>
       </c>
       <c r="C747" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D747" t="s">
@@ -18361,7 +18361,7 @@
         <v>7</v>
       </c>
       <c r="C748" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D748" t="s">
@@ -18385,7 +18385,7 @@
         <v>7</v>
       </c>
       <c r="C749" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D749" t="s">
@@ -18409,7 +18409,7 @@
         <v>7</v>
       </c>
       <c r="C750" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D750" t="s">
@@ -18433,7 +18433,7 @@
         <v>7</v>
       </c>
       <c r="C751" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D751" t="s">
@@ -18457,7 +18457,7 @@
         <v>7</v>
       </c>
       <c r="C752" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D752" t="s">
@@ -18481,7 +18481,7 @@
         <v>7</v>
       </c>
       <c r="C753" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>07/2019</v>
       </c>
       <c r="D753" t="s">
@@ -18505,7 +18505,7 @@
         <v>8</v>
       </c>
       <c r="C754" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D754" t="s">
@@ -18529,7 +18529,7 @@
         <v>8</v>
       </c>
       <c r="C755" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D755" t="s">
@@ -18553,7 +18553,7 @@
         <v>8</v>
       </c>
       <c r="C756" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D756" t="s">
@@ -18577,7 +18577,7 @@
         <v>8</v>
       </c>
       <c r="C757" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D757" t="s">
@@ -18601,7 +18601,7 @@
         <v>8</v>
       </c>
       <c r="C758" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D758" t="s">
@@ -18625,7 +18625,7 @@
         <v>8</v>
       </c>
       <c r="C759" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D759" t="s">
@@ -18649,7 +18649,7 @@
         <v>8</v>
       </c>
       <c r="C760" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D760" t="s">
@@ -18673,7 +18673,7 @@
         <v>8</v>
       </c>
       <c r="C761" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D761" t="s">
@@ -18697,7 +18697,7 @@
         <v>8</v>
       </c>
       <c r="C762" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D762" t="s">
@@ -18721,7 +18721,7 @@
         <v>8</v>
       </c>
       <c r="C763" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D763" t="s">
@@ -18745,7 +18745,7 @@
         <v>8</v>
       </c>
       <c r="C764" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D764" t="s">
@@ -18769,7 +18769,7 @@
         <v>8</v>
       </c>
       <c r="C765" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D765" t="s">
@@ -18793,7 +18793,7 @@
         <v>8</v>
       </c>
       <c r="C766" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D766" t="s">
@@ -18817,7 +18817,7 @@
         <v>8</v>
       </c>
       <c r="C767" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D767" t="s">
@@ -18841,7 +18841,7 @@
         <v>8</v>
       </c>
       <c r="C768" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D768" t="s">
@@ -18865,7 +18865,7 @@
         <v>8</v>
       </c>
       <c r="C769" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D769" t="s">
@@ -18889,7 +18889,7 @@
         <v>8</v>
       </c>
       <c r="C770" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>08/2019</v>
       </c>
       <c r="D770" t="s">
@@ -18913,7 +18913,7 @@
         <v>8</v>
       </c>
       <c r="C771" t="str">
-        <f t="shared" ref="C771:C834" si="14">CONCATENATE("0",B771, "/", A771)</f>
+        <f t="shared" ref="C771:C788" si="15">CONCATENATE("0",B771, "/", A771)</f>
         <v>08/2019</v>
       </c>
       <c r="D771" t="s">
@@ -18937,7 +18937,7 @@
         <v>9</v>
       </c>
       <c r="C772" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D772" t="s">
@@ -18961,7 +18961,7 @@
         <v>9</v>
       </c>
       <c r="C773" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D773" t="s">
@@ -18985,7 +18985,7 @@
         <v>9</v>
       </c>
       <c r="C774" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D774" t="s">
@@ -19009,7 +19009,7 @@
         <v>9</v>
       </c>
       <c r="C775" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D775" t="s">
@@ -19033,7 +19033,7 @@
         <v>9</v>
       </c>
       <c r="C776" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D776" t="s">
@@ -19057,7 +19057,7 @@
         <v>9</v>
       </c>
       <c r="C777" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D777" t="s">
@@ -19081,7 +19081,7 @@
         <v>9</v>
       </c>
       <c r="C778" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D778" t="s">
@@ -19105,7 +19105,7 @@
         <v>9</v>
       </c>
       <c r="C779" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D779" t="s">
@@ -19129,7 +19129,7 @@
         <v>9</v>
       </c>
       <c r="C780" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D780" t="s">
@@ -19153,7 +19153,7 @@
         <v>9</v>
       </c>
       <c r="C781" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D781" t="s">
@@ -19177,7 +19177,7 @@
         <v>9</v>
       </c>
       <c r="C782" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D782" t="s">
@@ -19201,7 +19201,7 @@
         <v>9</v>
       </c>
       <c r="C783" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D783" t="s">
@@ -19225,7 +19225,7 @@
         <v>9</v>
       </c>
       <c r="C784" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D784" t="s">
@@ -19249,7 +19249,7 @@
         <v>9</v>
       </c>
       <c r="C785" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D785" t="s">
@@ -19273,7 +19273,7 @@
         <v>9</v>
       </c>
       <c r="C786" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D786" t="s">
@@ -19297,7 +19297,7 @@
         <v>9</v>
       </c>
       <c r="C787" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D787" t="s">
@@ -19321,7 +19321,7 @@
         <v>9</v>
       </c>
       <c r="C788" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09/2019</v>
       </c>
       <c r="D788" t="s">
@@ -19369,7 +19369,7 @@
         <v>10</v>
       </c>
       <c r="C790" t="str">
-        <f t="shared" ref="C790:C841" si="15">CONCATENATE(B790, "/", A790)</f>
+        <f t="shared" ref="C790:C841" si="16">CONCATENATE(B790, "/", A790)</f>
         <v>10/2019</v>
       </c>
       <c r="D790" t="s">
@@ -19393,7 +19393,7 @@
         <v>10</v>
       </c>
       <c r="C791" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D791" t="s">
@@ -19417,7 +19417,7 @@
         <v>10</v>
       </c>
       <c r="C792" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D792" t="s">
@@ -19441,7 +19441,7 @@
         <v>10</v>
       </c>
       <c r="C793" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D793" t="s">
@@ -19465,7 +19465,7 @@
         <v>10</v>
       </c>
       <c r="C794" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D794" t="s">
@@ -19489,7 +19489,7 @@
         <v>10</v>
       </c>
       <c r="C795" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D795" t="s">
@@ -19513,7 +19513,7 @@
         <v>10</v>
       </c>
       <c r="C796" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D796" t="s">
@@ -19537,7 +19537,7 @@
         <v>10</v>
       </c>
       <c r="C797" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D797" t="s">
@@ -19561,7 +19561,7 @@
         <v>10</v>
       </c>
       <c r="C798" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D798" t="s">
@@ -19585,7 +19585,7 @@
         <v>10</v>
       </c>
       <c r="C799" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D799" t="s">
@@ -19609,7 +19609,7 @@
         <v>10</v>
       </c>
       <c r="C800" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D800" t="s">
@@ -19633,7 +19633,7 @@
         <v>10</v>
       </c>
       <c r="C801" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D801" t="s">
@@ -19657,7 +19657,7 @@
         <v>10</v>
       </c>
       <c r="C802" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D802" t="s">
@@ -19681,7 +19681,7 @@
         <v>10</v>
       </c>
       <c r="C803" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D803" t="s">
@@ -19705,7 +19705,7 @@
         <v>10</v>
       </c>
       <c r="C804" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D804" t="s">
@@ -19729,7 +19729,7 @@
         <v>10</v>
       </c>
       <c r="C805" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D805" t="s">
@@ -19753,7 +19753,7 @@
         <v>10</v>
       </c>
       <c r="C806" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10/2019</v>
       </c>
       <c r="D806" t="s">
@@ -19777,7 +19777,7 @@
         <v>11</v>
       </c>
       <c r="C807" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D807" t="s">
@@ -19801,7 +19801,7 @@
         <v>11</v>
       </c>
       <c r="C808" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D808" t="s">
@@ -19825,7 +19825,7 @@
         <v>11</v>
       </c>
       <c r="C809" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D809" t="s">
@@ -19849,7 +19849,7 @@
         <v>11</v>
       </c>
       <c r="C810" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D810" t="s">
@@ -19873,7 +19873,7 @@
         <v>11</v>
       </c>
       <c r="C811" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D811" t="s">
@@ -19897,7 +19897,7 @@
         <v>11</v>
       </c>
       <c r="C812" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D812" t="s">
@@ -19921,7 +19921,7 @@
         <v>11</v>
       </c>
       <c r="C813" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D813" t="s">
@@ -19945,7 +19945,7 @@
         <v>11</v>
       </c>
       <c r="C814" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D814" t="s">
@@ -19969,7 +19969,7 @@
         <v>11</v>
       </c>
       <c r="C815" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D815" t="s">
@@ -19993,7 +19993,7 @@
         <v>11</v>
       </c>
       <c r="C816" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D816" t="s">
@@ -20017,7 +20017,7 @@
         <v>11</v>
       </c>
       <c r="C817" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D817" t="s">
@@ -20041,7 +20041,7 @@
         <v>11</v>
       </c>
       <c r="C818" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D818" t="s">
@@ -20065,7 +20065,7 @@
         <v>11</v>
       </c>
       <c r="C819" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D819" t="s">
@@ -20089,7 +20089,7 @@
         <v>11</v>
       </c>
       <c r="C820" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D820" t="s">
@@ -20113,7 +20113,7 @@
         <v>11</v>
       </c>
       <c r="C821" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D821" t="s">
@@ -20137,7 +20137,7 @@
         <v>11</v>
       </c>
       <c r="C822" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D822" t="s">
@@ -20161,7 +20161,7 @@
         <v>11</v>
       </c>
       <c r="C823" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D823" t="s">
@@ -20185,7 +20185,7 @@
         <v>11</v>
       </c>
       <c r="C824" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11/2019</v>
       </c>
       <c r="D824" t="s">
@@ -20209,7 +20209,7 @@
         <v>12</v>
       </c>
       <c r="C825" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D825" t="s">
@@ -20233,7 +20233,7 @@
         <v>12</v>
       </c>
       <c r="C826" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D826" t="s">
@@ -20257,7 +20257,7 @@
         <v>12</v>
       </c>
       <c r="C827" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D827" t="s">
@@ -20281,7 +20281,7 @@
         <v>12</v>
       </c>
       <c r="C828" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D828" t="s">
@@ -20305,7 +20305,7 @@
         <v>12</v>
       </c>
       <c r="C829" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D829" t="s">
@@ -20329,7 +20329,7 @@
         <v>12</v>
       </c>
       <c r="C830" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D830" t="s">
@@ -20353,7 +20353,7 @@
         <v>12</v>
       </c>
       <c r="C831" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D831" t="s">
@@ -20377,7 +20377,7 @@
         <v>12</v>
       </c>
       <c r="C832" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D832" t="s">
@@ -20401,7 +20401,7 @@
         <v>12</v>
       </c>
       <c r="C833" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D833" t="s">
@@ -20425,7 +20425,7 @@
         <v>12</v>
       </c>
       <c r="C834" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D834" t="s">
@@ -20449,7 +20449,7 @@
         <v>12</v>
       </c>
       <c r="C835" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D835" t="s">
@@ -20473,7 +20473,7 @@
         <v>12</v>
       </c>
       <c r="C836" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D836" t="s">
@@ -20497,7 +20497,7 @@
         <v>12</v>
       </c>
       <c r="C837" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D837" t="s">
@@ -20521,7 +20521,7 @@
         <v>12</v>
       </c>
       <c r="C838" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D838" t="s">
@@ -20545,7 +20545,7 @@
         <v>12</v>
       </c>
       <c r="C839" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D839" t="s">
@@ -20569,7 +20569,7 @@
         <v>12</v>
       </c>
       <c r="C840" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D840" t="s">
@@ -20593,7 +20593,7 @@
         <v>12</v>
       </c>
       <c r="C841" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12/2019</v>
       </c>
       <c r="D841" t="s">
@@ -20617,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="C842" t="str">
-        <f t="shared" ref="C835:C898" si="16">CONCATENATE("0",B842, "/", A842)</f>
+        <f t="shared" ref="C842:C898" si="17">CONCATENATE("0",B842, "/", A842)</f>
         <v>01/2020</v>
       </c>
       <c r="D842" t="s">
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="C843" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D843" t="s">
@@ -20665,7 +20665,7 @@
         <v>1</v>
       </c>
       <c r="C844" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D844" t="s">
@@ -20689,7 +20689,7 @@
         <v>1</v>
       </c>
       <c r="C845" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D845" t="s">
@@ -20713,7 +20713,7 @@
         <v>1</v>
       </c>
       <c r="C846" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D846" t="s">
@@ -20737,7 +20737,7 @@
         <v>1</v>
       </c>
       <c r="C847" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D847" t="s">
@@ -20761,7 +20761,7 @@
         <v>1</v>
       </c>
       <c r="C848" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D848" t="s">
@@ -20785,7 +20785,7 @@
         <v>1</v>
       </c>
       <c r="C849" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D849" t="s">
@@ -20809,7 +20809,7 @@
         <v>1</v>
       </c>
       <c r="C850" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D850" t="s">
@@ -20833,7 +20833,7 @@
         <v>1</v>
       </c>
       <c r="C851" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D851" t="s">
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="C852" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D852" t="s">
@@ -20881,7 +20881,7 @@
         <v>1</v>
       </c>
       <c r="C853" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D853" t="s">
@@ -20905,7 +20905,7 @@
         <v>1</v>
       </c>
       <c r="C854" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D854" t="s">
@@ -20929,7 +20929,7 @@
         <v>1</v>
       </c>
       <c r="C855" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D855" t="s">
@@ -20953,7 +20953,7 @@
         <v>1</v>
       </c>
       <c r="C856" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D856" t="s">
@@ -20977,7 +20977,7 @@
         <v>1</v>
       </c>
       <c r="C857" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D857" t="s">
@@ -21001,7 +21001,7 @@
         <v>1</v>
       </c>
       <c r="C858" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D858" t="s">
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
       <c r="C859" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>01/2020</v>
       </c>
       <c r="D859" t="s">
@@ -21049,7 +21049,7 @@
         <v>2</v>
       </c>
       <c r="C860" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D860" t="s">
@@ -21073,7 +21073,7 @@
         <v>2</v>
       </c>
       <c r="C861" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D861" t="s">
@@ -21097,7 +21097,7 @@
         <v>2</v>
       </c>
       <c r="C862" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D862" t="s">
@@ -21121,7 +21121,7 @@
         <v>2</v>
       </c>
       <c r="C863" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D863" t="s">
@@ -21145,7 +21145,7 @@
         <v>2</v>
       </c>
       <c r="C864" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D864" t="s">
@@ -21169,7 +21169,7 @@
         <v>2</v>
       </c>
       <c r="C865" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D865" t="s">
@@ -21193,7 +21193,7 @@
         <v>2</v>
       </c>
       <c r="C866" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D866" t="s">
@@ -21217,7 +21217,7 @@
         <v>2</v>
       </c>
       <c r="C867" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D867" t="s">
@@ -21241,7 +21241,7 @@
         <v>2</v>
       </c>
       <c r="C868" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D868" t="s">
@@ -21265,7 +21265,7 @@
         <v>2</v>
       </c>
       <c r="C869" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D869" t="s">
@@ -21289,7 +21289,7 @@
         <v>2</v>
       </c>
       <c r="C870" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D870" t="s">
@@ -21313,7 +21313,7 @@
         <v>2</v>
       </c>
       <c r="C871" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D871" t="s">
@@ -21337,7 +21337,7 @@
         <v>2</v>
       </c>
       <c r="C872" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D872" t="s">
@@ -21361,7 +21361,7 @@
         <v>2</v>
       </c>
       <c r="C873" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D873" t="s">
@@ -21385,7 +21385,7 @@
         <v>2</v>
       </c>
       <c r="C874" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D874" t="s">
@@ -21409,7 +21409,7 @@
         <v>2</v>
       </c>
       <c r="C875" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D875" t="s">
@@ -21433,7 +21433,7 @@
         <v>2</v>
       </c>
       <c r="C876" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D876" t="s">
@@ -21457,7 +21457,7 @@
         <v>2</v>
       </c>
       <c r="C877" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>02/2020</v>
       </c>
       <c r="D877" t="s">
@@ -21481,7 +21481,7 @@
         <v>3</v>
       </c>
       <c r="C878" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D878" t="s">
@@ -21505,7 +21505,7 @@
         <v>3</v>
       </c>
       <c r="C879" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D879" t="s">
@@ -21529,7 +21529,7 @@
         <v>3</v>
       </c>
       <c r="C880" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D880" t="s">
@@ -21553,7 +21553,7 @@
         <v>3</v>
       </c>
       <c r="C881" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D881" t="s">
@@ -21577,7 +21577,7 @@
         <v>3</v>
       </c>
       <c r="C882" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D882" t="s">
@@ -21601,7 +21601,7 @@
         <v>3</v>
       </c>
       <c r="C883" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D883" t="s">
@@ -21625,7 +21625,7 @@
         <v>3</v>
       </c>
       <c r="C884" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D884" t="s">
@@ -21649,7 +21649,7 @@
         <v>3</v>
       </c>
       <c r="C885" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D885" t="s">
@@ -21673,7 +21673,7 @@
         <v>3</v>
       </c>
       <c r="C886" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D886" t="s">
@@ -21697,7 +21697,7 @@
         <v>3</v>
       </c>
       <c r="C887" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D887" t="s">
@@ -21721,7 +21721,7 @@
         <v>3</v>
       </c>
       <c r="C888" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D888" t="s">
@@ -21745,7 +21745,7 @@
         <v>3</v>
       </c>
       <c r="C889" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D889" t="s">
@@ -21769,7 +21769,7 @@
         <v>3</v>
       </c>
       <c r="C890" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D890" t="s">
@@ -21793,7 +21793,7 @@
         <v>3</v>
       </c>
       <c r="C891" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D891" t="s">
@@ -21817,7 +21817,7 @@
         <v>3</v>
       </c>
       <c r="C892" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D892" t="s">
@@ -21841,7 +21841,7 @@
         <v>3</v>
       </c>
       <c r="C893" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D893" t="s">
@@ -21865,7 +21865,7 @@
         <v>3</v>
       </c>
       <c r="C894" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D894" t="s">
@@ -21889,7 +21889,7 @@
         <v>3</v>
       </c>
       <c r="C895" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>03/2020</v>
       </c>
       <c r="D895" t="s">
@@ -21913,7 +21913,7 @@
         <v>4</v>
       </c>
       <c r="C896" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>04/2020</v>
       </c>
       <c r="D896" t="s">
@@ -21937,7 +21937,7 @@
         <v>4</v>
       </c>
       <c r="C897" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>04/2020</v>
       </c>
       <c r="D897" t="s">
@@ -21961,7 +21961,7 @@
         <v>4</v>
       </c>
       <c r="C898" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>04/2020</v>
       </c>
       <c r="D898" t="s">
@@ -21985,7 +21985,7 @@
         <v>4</v>
       </c>
       <c r="C899" t="str">
-        <f t="shared" ref="C899:C962" si="17">CONCATENATE("0",B899, "/", A899)</f>
+        <f t="shared" ref="C899:C962" si="18">CONCATENATE("0",B899, "/", A899)</f>
         <v>04/2020</v>
       </c>
       <c r="D899" t="s">
@@ -22009,7 +22009,7 @@
         <v>4</v>
       </c>
       <c r="C900" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D900" t="s">
@@ -22033,7 +22033,7 @@
         <v>4</v>
       </c>
       <c r="C901" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D901" t="s">
@@ -22057,7 +22057,7 @@
         <v>4</v>
       </c>
       <c r="C902" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D902" t="s">
@@ -22081,7 +22081,7 @@
         <v>4</v>
       </c>
       <c r="C903" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D903" t="s">
@@ -22105,7 +22105,7 @@
         <v>4</v>
       </c>
       <c r="C904" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D904" t="s">
@@ -22129,7 +22129,7 @@
         <v>4</v>
       </c>
       <c r="C905" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D905" t="s">
@@ -22153,7 +22153,7 @@
         <v>4</v>
       </c>
       <c r="C906" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D906" t="s">
@@ -22177,7 +22177,7 @@
         <v>4</v>
       </c>
       <c r="C907" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D907" t="s">
@@ -22201,7 +22201,7 @@
         <v>4</v>
       </c>
       <c r="C908" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D908" t="s">
@@ -22225,7 +22225,7 @@
         <v>4</v>
       </c>
       <c r="C909" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D909" t="s">
@@ -22249,7 +22249,7 @@
         <v>4</v>
       </c>
       <c r="C910" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D910" t="s">
@@ -22273,7 +22273,7 @@
         <v>4</v>
       </c>
       <c r="C911" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D911" t="s">
@@ -22297,7 +22297,7 @@
         <v>4</v>
       </c>
       <c r="C912" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D912" t="s">
@@ -22321,7 +22321,7 @@
         <v>4</v>
       </c>
       <c r="C913" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04/2020</v>
       </c>
       <c r="D913" t="s">
@@ -22345,7 +22345,7 @@
         <v>5</v>
       </c>
       <c r="C914" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D914" t="s">
@@ -22369,7 +22369,7 @@
         <v>5</v>
       </c>
       <c r="C915" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D915" t="s">
@@ -22393,7 +22393,7 @@
         <v>5</v>
       </c>
       <c r="C916" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D916" t="s">
@@ -22417,7 +22417,7 @@
         <v>5</v>
       </c>
       <c r="C917" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D917" t="s">
@@ -22441,7 +22441,7 @@
         <v>5</v>
       </c>
       <c r="C918" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D918" t="s">
@@ -22465,7 +22465,7 @@
         <v>5</v>
       </c>
       <c r="C919" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D919" t="s">
@@ -22489,7 +22489,7 @@
         <v>5</v>
       </c>
       <c r="C920" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D920" t="s">
@@ -22513,7 +22513,7 @@
         <v>5</v>
       </c>
       <c r="C921" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D921" t="s">
@@ -22537,7 +22537,7 @@
         <v>5</v>
       </c>
       <c r="C922" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D922" t="s">
@@ -22561,7 +22561,7 @@
         <v>5</v>
       </c>
       <c r="C923" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D923" t="s">
@@ -22585,7 +22585,7 @@
         <v>5</v>
       </c>
       <c r="C924" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D924" t="s">
@@ -22609,7 +22609,7 @@
         <v>5</v>
       </c>
       <c r="C925" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D925" t="s">
@@ -22633,7 +22633,7 @@
         <v>5</v>
       </c>
       <c r="C926" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D926" t="s">
@@ -22657,7 +22657,7 @@
         <v>5</v>
       </c>
       <c r="C927" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D927" t="s">
@@ -22681,7 +22681,7 @@
         <v>5</v>
       </c>
       <c r="C928" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D928" t="s">
@@ -22705,7 +22705,7 @@
         <v>5</v>
       </c>
       <c r="C929" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D929" t="s">
@@ -22729,7 +22729,7 @@
         <v>5</v>
       </c>
       <c r="C930" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D930" t="s">
@@ -22753,7 +22753,7 @@
         <v>5</v>
       </c>
       <c r="C931" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>05/2020</v>
       </c>
       <c r="D931" t="s">
@@ -22777,7 +22777,7 @@
         <v>6</v>
       </c>
       <c r="C932" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D932" t="s">
@@ -22801,7 +22801,7 @@
         <v>6</v>
       </c>
       <c r="C933" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D933" t="s">
@@ -22825,7 +22825,7 @@
         <v>6</v>
       </c>
       <c r="C934" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D934" t="s">
@@ -22849,7 +22849,7 @@
         <v>6</v>
       </c>
       <c r="C935" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D935" t="s">
@@ -22873,7 +22873,7 @@
         <v>6</v>
       </c>
       <c r="C936" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D936" t="s">
@@ -22897,7 +22897,7 @@
         <v>6</v>
       </c>
       <c r="C937" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D937" t="s">
@@ -22921,7 +22921,7 @@
         <v>6</v>
       </c>
       <c r="C938" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D938" t="s">
@@ -22945,7 +22945,7 @@
         <v>6</v>
       </c>
       <c r="C939" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D939" t="s">
@@ -22969,7 +22969,7 @@
         <v>6</v>
       </c>
       <c r="C940" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D940" t="s">
@@ -22993,7 +22993,7 @@
         <v>6</v>
       </c>
       <c r="C941" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D941" t="s">
@@ -23017,7 +23017,7 @@
         <v>6</v>
       </c>
       <c r="C942" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D942" t="s">
@@ -23041,7 +23041,7 @@
         <v>6</v>
       </c>
       <c r="C943" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D943" t="s">
@@ -23065,7 +23065,7 @@
         <v>6</v>
       </c>
       <c r="C944" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D944" t="s">
@@ -23089,7 +23089,7 @@
         <v>6</v>
       </c>
       <c r="C945" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D945" t="s">
@@ -23113,7 +23113,7 @@
         <v>6</v>
       </c>
       <c r="C946" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D946" t="s">
@@ -23137,7 +23137,7 @@
         <v>6</v>
       </c>
       <c r="C947" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>06/2020</v>
       </c>
       <c r="D947" t="s">
@@ -23161,7 +23161,7 @@
         <v>7</v>
       </c>
       <c r="C948" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D948" t="s">
@@ -23185,7 +23185,7 @@
         <v>7</v>
       </c>
       <c r="C949" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D949" t="s">
@@ -23209,7 +23209,7 @@
         <v>7</v>
       </c>
       <c r="C950" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D950" t="s">
@@ -23233,7 +23233,7 @@
         <v>7</v>
       </c>
       <c r="C951" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D951" t="s">
@@ -23257,7 +23257,7 @@
         <v>7</v>
       </c>
       <c r="C952" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D952" t="s">
@@ -23281,7 +23281,7 @@
         <v>7</v>
       </c>
       <c r="C953" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D953" t="s">
@@ -23305,7 +23305,7 @@
         <v>7</v>
       </c>
       <c r="C954" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D954" t="s">
@@ -23329,7 +23329,7 @@
         <v>7</v>
       </c>
       <c r="C955" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D955" t="s">
@@ -23353,7 +23353,7 @@
         <v>7</v>
       </c>
       <c r="C956" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D956" t="s">
@@ -23377,7 +23377,7 @@
         <v>7</v>
       </c>
       <c r="C957" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D957" t="s">
@@ -23401,7 +23401,7 @@
         <v>7</v>
       </c>
       <c r="C958" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D958" t="s">
@@ -23425,7 +23425,7 @@
         <v>7</v>
       </c>
       <c r="C959" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D959" t="s">
@@ -23449,7 +23449,7 @@
         <v>7</v>
       </c>
       <c r="C960" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D960" t="s">
@@ -23473,7 +23473,7 @@
         <v>7</v>
       </c>
       <c r="C961" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D961" t="s">
@@ -23497,7 +23497,7 @@
         <v>7</v>
       </c>
       <c r="C962" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>07/2020</v>
       </c>
       <c r="D962" t="s">
@@ -23521,7 +23521,7 @@
         <v>7</v>
       </c>
       <c r="C963" t="str">
-        <f t="shared" ref="C963:C1026" si="18">CONCATENATE("0",B963, "/", A963)</f>
+        <f t="shared" ref="C963:C1000" si="19">CONCATENATE("0",B963, "/", A963)</f>
         <v>07/2020</v>
       </c>
       <c r="D963" t="s">
@@ -23545,7 +23545,7 @@
         <v>7</v>
       </c>
       <c r="C964" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>07/2020</v>
       </c>
       <c r="D964" t="s">
@@ -23569,7 +23569,7 @@
         <v>8</v>
       </c>
       <c r="C965" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D965" t="s">
@@ -23593,7 +23593,7 @@
         <v>8</v>
       </c>
       <c r="C966" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D966" t="s">
@@ -23617,7 +23617,7 @@
         <v>8</v>
       </c>
       <c r="C967" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D967" t="s">
@@ -23641,7 +23641,7 @@
         <v>8</v>
       </c>
       <c r="C968" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D968" t="s">
@@ -23665,7 +23665,7 @@
         <v>8</v>
       </c>
       <c r="C969" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D969" t="s">
@@ -23689,7 +23689,7 @@
         <v>8</v>
       </c>
       <c r="C970" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D970" t="s">
@@ -23713,7 +23713,7 @@
         <v>8</v>
       </c>
       <c r="C971" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D971" t="s">
@@ -23737,7 +23737,7 @@
         <v>8</v>
       </c>
       <c r="C972" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D972" t="s">
@@ -23761,7 +23761,7 @@
         <v>8</v>
       </c>
       <c r="C973" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D973" t="s">
@@ -23785,7 +23785,7 @@
         <v>8</v>
       </c>
       <c r="C974" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D974" t="s">
@@ -23809,7 +23809,7 @@
         <v>8</v>
       </c>
       <c r="C975" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D975" t="s">
@@ -23833,7 +23833,7 @@
         <v>8</v>
       </c>
       <c r="C976" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D976" t="s">
@@ -23857,7 +23857,7 @@
         <v>8</v>
       </c>
       <c r="C977" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D977" t="s">
@@ -23881,7 +23881,7 @@
         <v>8</v>
       </c>
       <c r="C978" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D978" t="s">
@@ -23905,7 +23905,7 @@
         <v>8</v>
       </c>
       <c r="C979" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D979" t="s">
@@ -23929,7 +23929,7 @@
         <v>8</v>
       </c>
       <c r="C980" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D980" t="s">
@@ -23953,7 +23953,7 @@
         <v>8</v>
       </c>
       <c r="C981" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D981" t="s">
@@ -23977,7 +23977,7 @@
         <v>8</v>
       </c>
       <c r="C982" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08/2020</v>
       </c>
       <c r="D982" t="s">
@@ -24001,7 +24001,7 @@
         <v>9</v>
       </c>
       <c r="C983" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D983" t="s">
@@ -24025,7 +24025,7 @@
         <v>9</v>
       </c>
       <c r="C984" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D984" t="s">
@@ -24049,7 +24049,7 @@
         <v>9</v>
       </c>
       <c r="C985" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D985" t="s">
@@ -24073,7 +24073,7 @@
         <v>9</v>
       </c>
       <c r="C986" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D986" t="s">
@@ -24097,7 +24097,7 @@
         <v>9</v>
       </c>
       <c r="C987" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D987" t="s">
@@ -24121,7 +24121,7 @@
         <v>9</v>
       </c>
       <c r="C988" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D988" t="s">
@@ -24145,7 +24145,7 @@
         <v>9</v>
       </c>
       <c r="C989" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D989" t="s">
@@ -24169,7 +24169,7 @@
         <v>9</v>
       </c>
       <c r="C990" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D990" t="s">
@@ -24193,7 +24193,7 @@
         <v>9</v>
       </c>
       <c r="C991" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D991" t="s">
@@ -24217,7 +24217,7 @@
         <v>9</v>
       </c>
       <c r="C992" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D992" t="s">
@@ -24241,7 +24241,7 @@
         <v>9</v>
       </c>
       <c r="C993" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D993" t="s">
@@ -24265,7 +24265,7 @@
         <v>9</v>
       </c>
       <c r="C994" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D994" t="s">
@@ -24289,7 +24289,7 @@
         <v>9</v>
       </c>
       <c r="C995" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D995" t="s">
@@ -24313,7 +24313,7 @@
         <v>9</v>
       </c>
       <c r="C996" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D996" t="s">
@@ -24337,7 +24337,7 @@
         <v>9</v>
       </c>
       <c r="C997" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D997" t="s">
@@ -24361,7 +24361,7 @@
         <v>9</v>
       </c>
       <c r="C998" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D998" t="s">
@@ -24385,7 +24385,7 @@
         <v>9</v>
       </c>
       <c r="C999" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D999" t="s">
@@ -24409,7 +24409,7 @@
         <v>9</v>
       </c>
       <c r="C1000" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>09/2020</v>
       </c>
       <c r="D1000" t="s">
@@ -24457,7 +24457,7 @@
         <v>10</v>
       </c>
       <c r="C1002" t="str">
-        <f t="shared" ref="C1002:C1054" si="19">CONCATENATE(B1002, "/", A1002)</f>
+        <f t="shared" ref="C1002:C1054" si="20">CONCATENATE(B1002, "/", A1002)</f>
         <v>10/2020</v>
       </c>
       <c r="D1002" t="s">
@@ -24481,7 +24481,7 @@
         <v>10</v>
       </c>
       <c r="C1003" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1003" t="s">
@@ -24505,7 +24505,7 @@
         <v>10</v>
       </c>
       <c r="C1004" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1004" t="s">
@@ -24529,7 +24529,7 @@
         <v>10</v>
       </c>
       <c r="C1005" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1005" t="s">
@@ -24553,7 +24553,7 @@
         <v>10</v>
       </c>
       <c r="C1006" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1006" t="s">
@@ -24577,7 +24577,7 @@
         <v>10</v>
       </c>
       <c r="C1007" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1007" t="s">
@@ -24601,7 +24601,7 @@
         <v>10</v>
       </c>
       <c r="C1008" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1008" t="s">
@@ -24625,7 +24625,7 @@
         <v>10</v>
       </c>
       <c r="C1009" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1009" t="s">
@@ -24649,7 +24649,7 @@
         <v>10</v>
       </c>
       <c r="C1010" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1010" t="s">
@@ -24673,7 +24673,7 @@
         <v>10</v>
       </c>
       <c r="C1011" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1011" t="s">
@@ -24697,7 +24697,7 @@
         <v>10</v>
       </c>
       <c r="C1012" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1012" t="s">
@@ -24721,7 +24721,7 @@
         <v>10</v>
       </c>
       <c r="C1013" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1013" t="s">
@@ -24745,7 +24745,7 @@
         <v>10</v>
       </c>
       <c r="C1014" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1014" t="s">
@@ -24769,7 +24769,7 @@
         <v>10</v>
       </c>
       <c r="C1015" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1015" t="s">
@@ -24793,7 +24793,7 @@
         <v>10</v>
       </c>
       <c r="C1016" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1016" t="s">
@@ -24817,7 +24817,7 @@
         <v>10</v>
       </c>
       <c r="C1017" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1017" t="s">
@@ -24841,7 +24841,7 @@
         <v>10</v>
       </c>
       <c r="C1018" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10/2020</v>
       </c>
       <c r="D1018" t="s">
@@ -24865,7 +24865,7 @@
         <v>11</v>
       </c>
       <c r="C1019" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1019" t="s">
@@ -24889,7 +24889,7 @@
         <v>11</v>
       </c>
       <c r="C1020" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1020" t="s">
@@ -24913,7 +24913,7 @@
         <v>11</v>
       </c>
       <c r="C1021" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1021" t="s">
@@ -24937,7 +24937,7 @@
         <v>11</v>
       </c>
       <c r="C1022" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1022" t="s">
@@ -24961,7 +24961,7 @@
         <v>11</v>
       </c>
       <c r="C1023" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1023" t="s">
@@ -24985,7 +24985,7 @@
         <v>11</v>
       </c>
       <c r="C1024" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1024" t="s">
@@ -25009,7 +25009,7 @@
         <v>11</v>
       </c>
       <c r="C1025" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1025" t="s">
@@ -25033,7 +25033,7 @@
         <v>11</v>
       </c>
       <c r="C1026" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1026" t="s">
@@ -25057,7 +25057,7 @@
         <v>11</v>
       </c>
       <c r="C1027" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1027" t="s">
@@ -25081,7 +25081,7 @@
         <v>11</v>
       </c>
       <c r="C1028" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1028" t="s">
@@ -25105,7 +25105,7 @@
         <v>11</v>
       </c>
       <c r="C1029" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1029" t="s">
@@ -25129,7 +25129,7 @@
         <v>11</v>
       </c>
       <c r="C1030" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1030" t="s">
@@ -25153,7 +25153,7 @@
         <v>11</v>
       </c>
       <c r="C1031" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1031" t="s">
@@ -25177,7 +25177,7 @@
         <v>11</v>
       </c>
       <c r="C1032" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1032" t="s">
@@ -25201,7 +25201,7 @@
         <v>11</v>
       </c>
       <c r="C1033" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1033" t="s">
@@ -25225,7 +25225,7 @@
         <v>11</v>
       </c>
       <c r="C1034" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1034" t="s">
@@ -25249,7 +25249,7 @@
         <v>11</v>
       </c>
       <c r="C1035" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1035" t="s">
@@ -25273,7 +25273,7 @@
         <v>11</v>
       </c>
       <c r="C1036" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11/2020</v>
       </c>
       <c r="D1036" t="s">
@@ -25297,7 +25297,7 @@
         <v>12</v>
       </c>
       <c r="C1037" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1037" t="s">
@@ -25321,7 +25321,7 @@
         <v>12</v>
       </c>
       <c r="C1038" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1038" t="s">
@@ -25345,7 +25345,7 @@
         <v>12</v>
       </c>
       <c r="C1039" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1039" t="s">
@@ -25369,7 +25369,7 @@
         <v>12</v>
       </c>
       <c r="C1040" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1040" t="s">
@@ -25393,7 +25393,7 @@
         <v>12</v>
       </c>
       <c r="C1041" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1041" t="s">
@@ -25417,7 +25417,7 @@
         <v>12</v>
       </c>
       <c r="C1042" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1042" t="s">
@@ -25441,7 +25441,7 @@
         <v>12</v>
       </c>
       <c r="C1043" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1043" t="s">
@@ -25465,7 +25465,7 @@
         <v>12</v>
       </c>
       <c r="C1044" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1044" t="s">
@@ -25489,7 +25489,7 @@
         <v>12</v>
       </c>
       <c r="C1045" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1045" t="s">
@@ -25513,7 +25513,7 @@
         <v>12</v>
       </c>
       <c r="C1046" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1046" t="s">
@@ -25537,7 +25537,7 @@
         <v>12</v>
       </c>
       <c r="C1047" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1047" t="s">
@@ -25561,7 +25561,7 @@
         <v>12</v>
       </c>
       <c r="C1048" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1048" t="s">
@@ -25585,7 +25585,7 @@
         <v>12</v>
       </c>
       <c r="C1049" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1049" t="s">
@@ -25609,7 +25609,7 @@
         <v>12</v>
       </c>
       <c r="C1050" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1050" t="s">
@@ -25633,7 +25633,7 @@
         <v>12</v>
       </c>
       <c r="C1051" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1051" t="s">
@@ -25657,7 +25657,7 @@
         <v>12</v>
       </c>
       <c r="C1052" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1052" t="s">
@@ -25681,7 +25681,7 @@
         <v>12</v>
       </c>
       <c r="C1053" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1053" t="s">
@@ -25705,7 +25705,7 @@
         <v>12</v>
       </c>
       <c r="C1054" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12/2020</v>
       </c>
       <c r="D1054" t="s">
@@ -25729,7 +25729,7 @@
         <v>1</v>
       </c>
       <c r="C1055" t="str">
-        <f t="shared" ref="C1027:C1090" si="20">CONCATENATE("0",B1055, "/", A1055)</f>
+        <f t="shared" ref="C1055:C1090" si="21">CONCATENATE("0",B1055, "/", A1055)</f>
         <v>01/2021</v>
       </c>
       <c r="D1055" t="s">
@@ -25753,7 +25753,7 @@
         <v>1</v>
       </c>
       <c r="C1056" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1056" t="s">
@@ -25777,7 +25777,7 @@
         <v>1</v>
       </c>
       <c r="C1057" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1057" t="s">
@@ -25801,7 +25801,7 @@
         <v>1</v>
       </c>
       <c r="C1058" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1058" t="s">
@@ -25825,7 +25825,7 @@
         <v>1</v>
       </c>
       <c r="C1059" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1059" t="s">
@@ -25849,7 +25849,7 @@
         <v>1</v>
       </c>
       <c r="C1060" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1060" t="s">
@@ -25873,7 +25873,7 @@
         <v>1</v>
       </c>
       <c r="C1061" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1061" t="s">
@@ -25897,7 +25897,7 @@
         <v>1</v>
       </c>
       <c r="C1062" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1062" t="s">
@@ -25921,7 +25921,7 @@
         <v>1</v>
       </c>
       <c r="C1063" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1063" t="s">
@@ -25945,7 +25945,7 @@
         <v>1</v>
       </c>
       <c r="C1064" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1064" t="s">
@@ -25969,7 +25969,7 @@
         <v>1</v>
       </c>
       <c r="C1065" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1065" t="s">
@@ -25993,7 +25993,7 @@
         <v>1</v>
       </c>
       <c r="C1066" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1066" t="s">
@@ -26017,7 +26017,7 @@
         <v>1</v>
       </c>
       <c r="C1067" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1067" t="s">
@@ -26041,7 +26041,7 @@
         <v>1</v>
       </c>
       <c r="C1068" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1068" t="s">
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="C1069" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1069" t="s">
@@ -26089,7 +26089,7 @@
         <v>1</v>
       </c>
       <c r="C1070" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1070" t="s">
@@ -26113,7 +26113,7 @@
         <v>1</v>
       </c>
       <c r="C1071" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1071" t="s">
@@ -26137,7 +26137,7 @@
         <v>1</v>
       </c>
       <c r="C1072" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>01/2021</v>
       </c>
       <c r="D1072" t="s">
@@ -26161,7 +26161,7 @@
         <v>2</v>
       </c>
       <c r="C1073" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1073" t="s">
@@ -26185,7 +26185,7 @@
         <v>2</v>
       </c>
       <c r="C1074" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1074" t="s">
@@ -26209,7 +26209,7 @@
         <v>2</v>
       </c>
       <c r="C1075" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1075" t="s">
@@ -26233,7 +26233,7 @@
         <v>2</v>
       </c>
       <c r="C1076" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1076" t="s">
@@ -26257,7 +26257,7 @@
         <v>2</v>
       </c>
       <c r="C1077" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1077" t="s">
@@ -26281,7 +26281,7 @@
         <v>2</v>
       </c>
       <c r="C1078" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1078" t="s">
@@ -26305,7 +26305,7 @@
         <v>2</v>
       </c>
       <c r="C1079" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1079" t="s">
@@ -26329,7 +26329,7 @@
         <v>2</v>
       </c>
       <c r="C1080" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1080" t="s">
@@ -26353,7 +26353,7 @@
         <v>2</v>
       </c>
       <c r="C1081" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1081" t="s">
@@ -26377,7 +26377,7 @@
         <v>2</v>
       </c>
       <c r="C1082" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1082" t="s">
@@ -26401,7 +26401,7 @@
         <v>2</v>
       </c>
       <c r="C1083" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1083" t="s">
@@ -26425,7 +26425,7 @@
         <v>2</v>
       </c>
       <c r="C1084" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1084" t="s">
@@ -26449,7 +26449,7 @@
         <v>2</v>
       </c>
       <c r="C1085" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1085" t="s">
@@ -26473,7 +26473,7 @@
         <v>2</v>
       </c>
       <c r="C1086" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1086" t="s">
@@ -26497,7 +26497,7 @@
         <v>2</v>
       </c>
       <c r="C1087" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1087" t="s">
@@ -26521,7 +26521,7 @@
         <v>2</v>
       </c>
       <c r="C1088" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1088" t="s">
@@ -26545,7 +26545,7 @@
         <v>2</v>
       </c>
       <c r="C1089" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1089" t="s">
@@ -26569,7 +26569,7 @@
         <v>2</v>
       </c>
       <c r="C1090" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>02/2021</v>
       </c>
       <c r="D1090" t="s">
@@ -26593,7 +26593,7 @@
         <v>3</v>
       </c>
       <c r="C1091" t="str">
-        <f t="shared" ref="C1091:C1154" si="21">CONCATENATE("0",B1091, "/", A1091)</f>
+        <f t="shared" ref="C1091:C1154" si="22">CONCATENATE("0",B1091, "/", A1091)</f>
         <v>03/2021</v>
       </c>
       <c r="D1091" t="s">
@@ -26617,7 +26617,7 @@
         <v>3</v>
       </c>
       <c r="C1092" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1092" t="s">
@@ -26641,7 +26641,7 @@
         <v>3</v>
       </c>
       <c r="C1093" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1093" t="s">
@@ -26665,7 +26665,7 @@
         <v>3</v>
       </c>
       <c r="C1094" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1094" t="s">
@@ -26689,7 +26689,7 @@
         <v>3</v>
       </c>
       <c r="C1095" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1095" t="s">
@@ -26713,7 +26713,7 @@
         <v>3</v>
       </c>
       <c r="C1096" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1096" t="s">
@@ -26737,7 +26737,7 @@
         <v>3</v>
       </c>
       <c r="C1097" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1097" t="s">
@@ -26761,7 +26761,7 @@
         <v>3</v>
       </c>
       <c r="C1098" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1098" t="s">
@@ -26785,7 +26785,7 @@
         <v>3</v>
       </c>
       <c r="C1099" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1099" t="s">
@@ -26809,7 +26809,7 @@
         <v>3</v>
       </c>
       <c r="C1100" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1100" t="s">
@@ -26833,7 +26833,7 @@
         <v>3</v>
       </c>
       <c r="C1101" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1101" t="s">
@@ -26857,7 +26857,7 @@
         <v>3</v>
       </c>
       <c r="C1102" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1102" t="s">
@@ -26881,7 +26881,7 @@
         <v>3</v>
       </c>
       <c r="C1103" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1103" t="s">
@@ -26905,7 +26905,7 @@
         <v>3</v>
       </c>
       <c r="C1104" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1104" t="s">
@@ -26929,7 +26929,7 @@
         <v>3</v>
       </c>
       <c r="C1105" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1105" t="s">
@@ -26953,7 +26953,7 @@
         <v>3</v>
       </c>
       <c r="C1106" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1106" t="s">
@@ -26977,7 +26977,7 @@
         <v>3</v>
       </c>
       <c r="C1107" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1107" t="s">
@@ -27001,7 +27001,7 @@
         <v>3</v>
       </c>
       <c r="C1108" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>03/2021</v>
       </c>
       <c r="D1108" t="s">
@@ -27025,7 +27025,7 @@
         <v>4</v>
       </c>
       <c r="C1109" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1109" t="s">
@@ -27049,7 +27049,7 @@
         <v>4</v>
       </c>
       <c r="C1110" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1110" t="s">
@@ -27073,7 +27073,7 @@
         <v>4</v>
       </c>
       <c r="C1111" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1111" t="s">
@@ -27097,7 +27097,7 @@
         <v>4</v>
       </c>
       <c r="C1112" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1112" t="s">
@@ -27121,7 +27121,7 @@
         <v>4</v>
       </c>
       <c r="C1113" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1113" t="s">
@@ -27145,7 +27145,7 @@
         <v>4</v>
       </c>
       <c r="C1114" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1114" t="s">
@@ -27169,7 +27169,7 @@
         <v>4</v>
       </c>
       <c r="C1115" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1115" t="s">
@@ -27193,7 +27193,7 @@
         <v>4</v>
       </c>
       <c r="C1116" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1116" t="s">
@@ -27217,7 +27217,7 @@
         <v>4</v>
       </c>
       <c r="C1117" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1117" t="s">
@@ -27241,7 +27241,7 @@
         <v>4</v>
       </c>
       <c r="C1118" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1118" t="s">
@@ -27265,7 +27265,7 @@
         <v>4</v>
       </c>
       <c r="C1119" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1119" t="s">
@@ -27289,7 +27289,7 @@
         <v>4</v>
       </c>
       <c r="C1120" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1120" t="s">
@@ -27313,7 +27313,7 @@
         <v>4</v>
       </c>
       <c r="C1121" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1121" t="s">
@@ -27337,7 +27337,7 @@
         <v>4</v>
       </c>
       <c r="C1122" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1122" t="s">
@@ -27361,7 +27361,7 @@
         <v>4</v>
       </c>
       <c r="C1123" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1123" t="s">
@@ -27385,7 +27385,7 @@
         <v>4</v>
       </c>
       <c r="C1124" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1124" t="s">
@@ -27409,7 +27409,7 @@
         <v>4</v>
       </c>
       <c r="C1125" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1125" t="s">
@@ -27433,7 +27433,7 @@
         <v>4</v>
       </c>
       <c r="C1126" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>04/2021</v>
       </c>
       <c r="D1126" t="s">
@@ -27457,7 +27457,7 @@
         <v>5</v>
       </c>
       <c r="C1127" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1127" t="s">
@@ -27481,7 +27481,7 @@
         <v>5</v>
       </c>
       <c r="C1128" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1128" t="s">
@@ -27505,7 +27505,7 @@
         <v>5</v>
       </c>
       <c r="C1129" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1129" t="s">
@@ -27529,7 +27529,7 @@
         <v>5</v>
       </c>
       <c r="C1130" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1130" t="s">
@@ -27553,7 +27553,7 @@
         <v>5</v>
       </c>
       <c r="C1131" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1131" t="s">
@@ -27577,7 +27577,7 @@
         <v>5</v>
       </c>
       <c r="C1132" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1132" t="s">
@@ -27601,7 +27601,7 @@
         <v>5</v>
       </c>
       <c r="C1133" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1133" t="s">
@@ -27625,7 +27625,7 @@
         <v>5</v>
       </c>
       <c r="C1134" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1134" t="s">
@@ -27649,7 +27649,7 @@
         <v>5</v>
       </c>
       <c r="C1135" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1135" t="s">
@@ -27673,7 +27673,7 @@
         <v>5</v>
       </c>
       <c r="C1136" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1136" t="s">
@@ -27697,7 +27697,7 @@
         <v>5</v>
       </c>
       <c r="C1137" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1137" t="s">
@@ -27721,7 +27721,7 @@
         <v>5</v>
       </c>
       <c r="C1138" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1138" t="s">
@@ -27745,7 +27745,7 @@
         <v>5</v>
       </c>
       <c r="C1139" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1139" t="s">
@@ -27769,7 +27769,7 @@
         <v>5</v>
       </c>
       <c r="C1140" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1140" t="s">
@@ -27793,7 +27793,7 @@
         <v>5</v>
       </c>
       <c r="C1141" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1141" t="s">
@@ -27817,7 +27817,7 @@
         <v>5</v>
       </c>
       <c r="C1142" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1142" t="s">
@@ -27841,7 +27841,7 @@
         <v>5</v>
       </c>
       <c r="C1143" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1143" t="s">
@@ -27865,7 +27865,7 @@
         <v>5</v>
       </c>
       <c r="C1144" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>05/2021</v>
       </c>
       <c r="D1144" t="s">
@@ -27889,7 +27889,7 @@
         <v>6</v>
       </c>
       <c r="C1145" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1145" t="s">
@@ -27913,7 +27913,7 @@
         <v>6</v>
       </c>
       <c r="C1146" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1146" t="s">
@@ -27937,7 +27937,7 @@
         <v>6</v>
       </c>
       <c r="C1147" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1147" t="s">
@@ -27961,7 +27961,7 @@
         <v>6</v>
       </c>
       <c r="C1148" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1148" t="s">
@@ -27985,7 +27985,7 @@
         <v>6</v>
       </c>
       <c r="C1149" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1149" t="s">
@@ -28009,7 +28009,7 @@
         <v>6</v>
       </c>
       <c r="C1150" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1150" t="s">
@@ -28033,7 +28033,7 @@
         <v>6</v>
       </c>
       <c r="C1151" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1151" t="s">
@@ -28057,7 +28057,7 @@
         <v>6</v>
       </c>
       <c r="C1152" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1152" t="s">
@@ -28081,7 +28081,7 @@
         <v>6</v>
       </c>
       <c r="C1153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1153" t="s">
@@ -28105,7 +28105,7 @@
         <v>6</v>
       </c>
       <c r="C1154" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>06/2021</v>
       </c>
       <c r="D1154" t="s">
@@ -28129,7 +28129,7 @@
         <v>6</v>
       </c>
       <c r="C1155" t="str">
-        <f t="shared" ref="C1155:C1162" si="22">CONCATENATE("0",B1155, "/", A1155)</f>
+        <f t="shared" ref="C1155:C1162" si="23">CONCATENATE("0",B1155, "/", A1155)</f>
         <v>06/2021</v>
       </c>
       <c r="D1155" t="s">
@@ -28153,7 +28153,7 @@
         <v>6</v>
       </c>
       <c r="C1156" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>06/2021</v>
       </c>
       <c r="D1156" t="s">
@@ -28177,7 +28177,7 @@
         <v>6</v>
       </c>
       <c r="C1157" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>06/2021</v>
       </c>
       <c r="D1157" t="s">
@@ -28201,7 +28201,7 @@
         <v>6</v>
       </c>
       <c r="C1158" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>06/2021</v>
       </c>
       <c r="D1158" t="s">
@@ -28225,7 +28225,7 @@
         <v>6</v>
       </c>
       <c r="C1159" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>06/2021</v>
       </c>
       <c r="D1159" t="s">
@@ -28249,7 +28249,7 @@
         <v>6</v>
       </c>
       <c r="C1160" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>06/2021</v>
       </c>
       <c r="D1160" t="s">
@@ -28273,7 +28273,7 @@
         <v>6</v>
       </c>
       <c r="C1161" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>06/2021</v>
       </c>
       <c r="D1161" t="s">
@@ -28297,7 +28297,7 @@
         <v>6</v>
       </c>
       <c r="C1162" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>06/2021</v>
       </c>
       <c r="D1162" t="s">
